--- a/data/19_Jan_Working_Ontology Table for NLP-Knowledge graphs-Visualisation.xlsx
+++ b/data/19_Jan_Working_Ontology Table for NLP-Knowledge graphs-Visualisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apister/Documents/Projects/gitlab/epiVis/public/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB2E71B-79E9-CA45-887D-2479A3F6E9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D059A2-0608-1B45-9C45-CA188A475D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1340" yWindow="740" windowWidth="28060" windowHeight="18380" activeTab="2" xr2:uid="{04EC009A-4836-7F43-9038-5A1FCA6BF5A3}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId15"/>
+    <pivotCache cacheId="4" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -277,7 +277,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9575" uniqueCount="2569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9576" uniqueCount="2569">
   <si>
     <t xml:space="preserve">Author: Chrysa Lamprinopoulou, EPIC, GAAFS, University of Edinburgh </t>
   </si>
@@ -11878,7 +11878,27 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="59">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -13872,7 +13892,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5E042883-CDEE-BE43-8530-1F7D1B740EC6}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5E042883-CDEE-BE43-8530-1F7D1B740EC6}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A2:B22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="descending">
@@ -48239,8 +48259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83550EBE-5AF5-E346-ABE7-C007E600AF03}">
   <dimension ref="A1:CH37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BI1" workbookViewId="0">
-      <selection activeCell="BJ2" sqref="BJ2"/>
+    <sheetView tabSelected="1" topLeftCell="BD2" workbookViewId="0">
+      <selection activeCell="BM7" sqref="BM7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -48800,8 +48820,8 @@
       <c r="BH3" t="s">
         <v>1676</v>
       </c>
-      <c r="BI3">
-        <v>4</v>
+      <c r="BI3" s="65" t="s">
+        <v>422</v>
       </c>
       <c r="BJ3">
         <v>2</v>
@@ -53326,7 +53346,7 @@
   </sheetData>
   <autoFilter ref="A1:CH43" xr:uid="{83550EBE-5AF5-E346-ABE7-C007E600AF03}"/>
   <conditionalFormatting sqref="BE3:BE20">
-    <cfRule type="colorScale" priority="76">
+    <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -53337,233 +53357,236 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE3:BN20">
-    <cfRule type="cellIs" dxfId="56" priority="73" operator="equal">
+  <conditionalFormatting sqref="BE4:BN20 BE3:BH3 BJ3:BN3">
+    <cfRule type="cellIs" dxfId="58" priority="75" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="74" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BI3">
-    <cfRule type="cellIs" dxfId="54" priority="71" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BI3:BI20">
-    <cfRule type="cellIs" dxfId="53" priority="35" operator="equal">
+  <conditionalFormatting sqref="BI4:BI20">
+    <cfRule type="cellIs" dxfId="55" priority="37" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="34" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BI3:BJ20">
-    <cfRule type="cellIs" dxfId="51" priority="34" operator="equal">
+  <conditionalFormatting sqref="BI4:BJ20 BJ3">
+    <cfRule type="cellIs" dxfId="53" priority="36" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="35" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ3:BJ20">
-    <cfRule type="cellIs" dxfId="49" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="38" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="41" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN3:BN20">
-    <cfRule type="cellIs" dxfId="47" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="66" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="68" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="67" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="69" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO3:BO20">
-    <cfRule type="cellIs" dxfId="43" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="72" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="71" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP3:BP20">
-    <cfRule type="cellIs" dxfId="41" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="70" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ3:BQ20">
-    <cfRule type="cellIs" dxfId="40" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="59" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="61" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="60" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR3:BR20">
-    <cfRule type="cellIs" dxfId="37" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="57" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="56" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS3:BS20">
-    <cfRule type="cellIs" dxfId="35" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="54" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="55" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="53" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT3:BT20">
-    <cfRule type="cellIs" dxfId="32" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="48" operator="equal">
       <formula>"2,3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="49" operator="equal">
       <formula>"2,4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="51" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="50" operator="containsText" text="2,3,4">
+    <cfRule type="containsText" dxfId="30" priority="52" operator="containsText" text="2,3,4">
       <formula>NOT(ISERROR(SEARCH("2,3,4",BT3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU3:BU20">
-    <cfRule type="cellIs" dxfId="27" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="47" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV3:BW20">
-    <cfRule type="cellIs" dxfId="26" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="42" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="43" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX3:BX20">
-    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="15" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="17" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="18" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX3:CC20">
-    <cfRule type="cellIs" dxfId="20" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY3:BY20">
-    <cfRule type="cellIs" dxfId="19" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="31" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY3:BZ20">
-    <cfRule type="cellIs" dxfId="18" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="29" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ3:BZ20">
-    <cfRule type="cellIs" dxfId="17" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="28" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA3:CA20">
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="1,2">
+    <cfRule type="containsText" dxfId="17" priority="23" operator="containsText" text="1,2">
       <formula>NOT(ISERROR(SEARCH("1,2",CA3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CB3:CB20">
-    <cfRule type="cellIs" dxfId="14" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="25" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CC3:CC20">
-    <cfRule type="cellIs" dxfId="12" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD4:CD7">
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text=";">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text=";">
       <formula>NOT(ISERROR(SEARCH(";",CD4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD9:CD25">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text=";">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text=";">
       <formula>NOT(ISERROR(SEARCH(";",CD9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE3:CE25">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",CE3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF3:CF26">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CG3:CG20">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
       <formula>4</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
+      <formula>7</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CG3:CG24">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
-      <formula>6</formula>
+      <formula>7</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
       <formula>7</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG3:CG24">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
-      <formula>7</formula>
+  <conditionalFormatting sqref="BI3">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
-      <formula>7</formula>
-      <formula>4</formula>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
